--- a/zompyDogs/CRUD/REPORTES/ReportesExcel/ReporteCompleto.xlsx
+++ b/zompyDogs/CRUD/REPORTES/ReportesExcel/ReporteCompleto.xlsx
@@ -22,13 +22,13 @@
     <x:t>Total de Pedidos</x:t>
   </x:si>
   <x:si>
-    <x:t>L. 0.00</x:t>
+    <x:t>L1,063.73</x:t>
   </x:si>
   <x:si>
     <x:t>Cantidad de Pedidos</x:t>
   </x:si>
   <x:si>
-    <x:t>00</x:t>
+    <x:t>15</x:t>
   </x:si>
   <x:si>
     <x:t>-------------------------------</x:t>
@@ -37,16 +37,19 @@
     <x:t>Ventas Mensuales</x:t>
   </x:si>
   <x:si>
-    <x:t>L3,899.65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
+    <x:t>L6,607.78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
   </x:si>
   <x:si>
     <x:t>Ventas Anuales</x:t>
   </x:si>
   <x:si>
-    <x:t>44</x:t>
+    <x:t>L8,405.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
   </x:si>
   <x:si>
     <x:t>Empleado con Mayor Número de Ventas</x:t>
@@ -55,13 +58,13 @@
     <x:t>Nombre Completo</x:t>
   </x:si>
   <x:si>
-    <x:t>Admin Admin Admin Admin</x:t>
+    <x:t xml:space="preserve">Mar  Pena </x:t>
   </x:si>
   <x:si>
     <x:t>Total de Ventas</x:t>
   </x:si>
   <x:si>
-    <x:t>11</x:t>
+    <x:t>33</x:t>
   </x:si>
   <x:si>
     <x:t>Platillos Más Vendidos</x:t>
@@ -76,19 +79,19 @@
     <x:t>Cantidad Vendida</x:t>
   </x:si>
   <x:si>
+    <x:t>Pupusas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>un platillo</x:t>
+  </x:si>
+  <x:si>
     <x:t>Cervecero</x:t>
   </x:si>
   <x:si>
-    <x:t>Pupusas</x:t>
+    <x:t>Guacamole Sencillo</x:t>
   </x:si>
   <x:si>
     <x:t>Pie de Limón</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jugo de Naranja Natural</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guacamole Sencillo</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -98,7 +101,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -106,13 +109,26 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFD3D3D3"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -134,14 +150,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -446,7 +469,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="37.567768" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.282054" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -512,7 +535,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -520,7 +543,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -530,23 +553,23 @@
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -556,73 +579,73 @@
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
-      <x:c r="A22" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="A22" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="B22" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C23" s="0">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0">
-        <x:v>11</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C24" s="0">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C25" s="0">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C26" s="0">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C27" s="0">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
